--- a/Резы/Респа для МЕ-71б на 2020 год.xlsx
+++ b/Резы/Респа для МЕ-71б на 2020 год.xlsx
@@ -1690,7 +1690,7 @@
       <c r="G13" s="5" t="n"/>
       <c r="H13" s="6" t="n"/>
       <c r="I13" s="3" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
       <c r="F10" s="5" t="n"/>
       <c r="G10" s="6" t="n"/>
       <c r="H10" s="3" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="F10" s="7" t="n"/>
       <c r="I10" s="3" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>

--- a/Резы/Респа для МЕ-71б на 2020 год.xlsx
+++ b/Резы/Респа для МЕ-71б на 2020 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -114,66 +114,66 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -229,7 +229,7 @@
       <left style="thin"/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -658,7 +658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -831,7 +831,7 @@
       <c r="G5" s="6" t="n"/>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 308</t>
         </is>
       </c>
@@ -950,7 +950,7 @@
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 308</t>
         </is>
       </c>
@@ -1032,7 +1032,7 @@
       <c r="G12" s="6" t="n"/>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 308</t>
         </is>
       </c>
@@ -1134,80 +1134,127 @@
     <row r="16" ht="34" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
+          <t>ПТ</t>
+        </is>
+      </c>
+      <c r="B16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="n"/>
+      <c r="H16" s="9" t="n"/>
+      <c r="I16" s="9" t="n"/>
+    </row>
+    <row r="17" ht="34" customHeight="1">
+      <c r="A17" s="10" t="n"/>
+      <c r="B17" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D17" s="12" t="inlineStr">
+        <is>
+          <t>День самоподготовки: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
+      <c r="G17" s="14" t="n"/>
+      <c r="H17" s="11" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="I17" s="11" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="34" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
           <t>СБ</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B18" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>Метрология, стандартизация и сертификация в инфокоммуникациях: лекция (общ)</t>
         </is>
       </c>
-      <c r="F16" s="6" t="n"/>
-      <c r="G16" s="7" t="n"/>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>АКТ_зал</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
+      <c r="F18" s="6" t="n"/>
+      <c r="G18" s="7" t="n"/>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
         <is>
           <t>Соловаров И.В.</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="34" customHeight="1">
-      <c r="A17" s="8" t="n"/>
-      <c r="B17" s="3" t="n">
+    <row r="19" ht="34" customHeight="1">
+      <c r="A19" s="8" t="n"/>
+      <c r="B19" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>Метрология, стандартизация и сертификация в инфокоммуникациях: лекция (общ)</t>
         </is>
       </c>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="6" t="n"/>
-      <c r="H17" s="8" t="n"/>
-      <c r="I17" s="8" t="n"/>
-    </row>
-    <row r="18" ht="34" customHeight="1">
-      <c r="A18" s="10" t="n"/>
-      <c r="B18" s="11" t="n">
+      <c r="F19" s="5" t="n"/>
+      <c r="G19" s="6" t="n"/>
+      <c r="H19" s="8" t="n"/>
+      <c r="I19" s="8" t="n"/>
+    </row>
+    <row r="20" ht="34" customHeight="1">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="11" t="inlineStr">
+      <c r="C20" s="11" t="inlineStr">
         <is>
           <t>12:00 - 13:40</t>
         </is>
       </c>
-      <c r="D18" s="15" t="n"/>
-      <c r="E18" s="16" t="n"/>
-      <c r="F18" s="16" t="n"/>
-      <c r="G18" s="12" t="inlineStr">
+      <c r="D20" s="15" t="n"/>
+      <c r="E20" s="16" t="n"/>
+      <c r="F20" s="16" t="n"/>
+      <c r="G20" s="12" t="inlineStr">
         <is>
           <t>Метрология, стандартизация и сертификация в инфокоммуникациях: лекция (общ)</t>
         </is>
       </c>
-      <c r="H18" s="10" t="n"/>
-      <c r="I18" s="10" t="n"/>
+      <c r="H20" s="10" t="n"/>
+      <c r="I20" s="10" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="33">
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:F4"/>
@@ -1228,12 +1275,15 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A5:A7"/>
@@ -1249,7 +1299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1435,7 +1485,7 @@
       <c r="H5" s="7" t="n"/>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -1659,7 +1709,7 @@
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 308</t>
         </is>
       </c>
@@ -1757,108 +1807,156 @@
     <row r="16" ht="34" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
+          <t>ПТ</t>
+        </is>
+      </c>
+      <c r="B16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="n"/>
+      <c r="I16" s="9" t="n"/>
+      <c r="J16" s="9" t="n"/>
+    </row>
+    <row r="17" ht="34" customHeight="1">
+      <c r="A17" s="10" t="n"/>
+      <c r="B17" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D17" s="12" t="inlineStr">
+        <is>
+          <t>День самоподготовки: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
+      <c r="G17" s="13" t="n"/>
+      <c r="H17" s="14" t="n"/>
+      <c r="I17" s="11" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="J17" s="11" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="34" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
           <t>СБ</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B18" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D16" s="4" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>Метрология, стандартизация и сертификация в инфокоммуникациях: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="E16" s="7" t="n"/>
-      <c r="G16" s="4" t="inlineStr">
+      <c r="E18" s="7" t="n"/>
+      <c r="G18" s="4" t="inlineStr">
         <is>
           <t>Метрология, стандартизация и сертификация в инфокоммуникациях: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="H16" s="7" t="n"/>
-      <c r="I16" s="3" t="n">
+      <c r="H18" s="7" t="n"/>
+      <c r="I18" s="3" t="n">
         <v>316</v>
       </c>
-      <c r="J16" s="3" t="inlineStr">
+      <c r="J18" s="3" t="inlineStr">
         <is>
           <t>Соловаров И.В.</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="34" customHeight="1">
-      <c r="A17" s="8" t="n"/>
-      <c r="B17" s="3" t="n">
+    <row r="19" ht="34" customHeight="1">
+      <c r="A19" s="8" t="n"/>
+      <c r="B19" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>Метрология, стандартизация и сертификация в инфокоммуникациях: лекция (общ)</t>
         </is>
       </c>
-      <c r="E17" s="18" t="n"/>
-      <c r="F17" s="18" t="n"/>
-      <c r="G17" s="19" t="n"/>
-      <c r="H17" s="7" t="n"/>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>АКТ_зал</t>
-        </is>
-      </c>
-      <c r="J17" s="8" t="n"/>
-    </row>
-    <row r="18" ht="34" customHeight="1">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="3" t="n">
+      <c r="E19" s="18" t="n"/>
+      <c r="F19" s="18" t="n"/>
+      <c r="G19" s="19" t="n"/>
+      <c r="H19" s="7" t="n"/>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="J19" s="8" t="n"/>
+    </row>
+    <row r="20" ht="34" customHeight="1">
+      <c r="A20" s="8" t="n"/>
+      <c r="B20" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>12:00 - 13:40</t>
         </is>
       </c>
-      <c r="D18" s="20" t="n"/>
-      <c r="E18" s="21" t="n"/>
-      <c r="F18" s="21" t="n"/>
-      <c r="G18" s="22" t="n"/>
-      <c r="H18" s="7" t="n"/>
-      <c r="I18" s="17" t="n"/>
-      <c r="J18" s="8" t="n"/>
-    </row>
-    <row r="19" ht="34" customHeight="1">
-      <c r="A19" s="10" t="n"/>
-      <c r="B19" s="11" t="n">
+      <c r="D20" s="20" t="n"/>
+      <c r="E20" s="21" t="n"/>
+      <c r="F20" s="21" t="n"/>
+      <c r="G20" s="22" t="n"/>
+      <c r="H20" s="7" t="n"/>
+      <c r="I20" s="17" t="n"/>
+      <c r="J20" s="8" t="n"/>
+    </row>
+    <row r="21" ht="34" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C19" s="11" t="inlineStr">
+      <c r="C21" s="11" t="inlineStr">
         <is>
           <t>13:50 - 15:25</t>
         </is>
       </c>
-      <c r="D19" s="15" t="n"/>
-      <c r="E19" s="12" t="inlineStr">
+      <c r="D21" s="15" t="n"/>
+      <c r="E21" s="12" t="inlineStr">
         <is>
           <t>Метрология, стандартизация и сертификация в инфокоммуникациях: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="F19" s="15" t="n"/>
-      <c r="G19" s="16" t="n"/>
-      <c r="H19" s="16" t="n"/>
-      <c r="I19" s="11" t="n">
+      <c r="F21" s="15" t="n"/>
+      <c r="G21" s="16" t="n"/>
+      <c r="H21" s="16" t="n"/>
+      <c r="I21" s="11" t="n">
         <v>316</v>
       </c>
-      <c r="J19" s="10" t="n"/>
+      <c r="J21" s="10" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="30">
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="F4:H4"/>
@@ -1875,12 +1973,15 @@
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:G15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="D17:G18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="D19:G20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="J5:J6"/>
@@ -1897,7 +1998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -2298,7 +2399,7 @@
     <row r="13" ht="34" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>СБ</t>
+          <t>ПТ</t>
         </is>
       </c>
       <c r="B13" s="9" t="n">
@@ -2314,69 +2415,116 @@
       <c r="I13" s="9" t="n"/>
     </row>
     <row r="14" ht="34" customHeight="1">
-      <c r="A14" s="8" t="n"/>
-      <c r="B14" s="9" t="n">
+      <c r="A14" s="10" t="n"/>
+      <c r="B14" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="9" t="inlineStr">
+      <c r="C14" s="11" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D14" s="7" t="n"/>
-      <c r="H14" s="9" t="n"/>
-      <c r="I14" s="9" t="n"/>
+      <c r="D14" s="12" t="inlineStr">
+        <is>
+          <t>День самоподготовки: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E14" s="13" t="n"/>
+      <c r="F14" s="13" t="n"/>
+      <c r="G14" s="14" t="n"/>
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="I14" s="11" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="34" customHeight="1">
-      <c r="A15" s="8" t="n"/>
-      <c r="B15" s="3" t="n">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="n"/>
+      <c r="H15" s="9" t="n"/>
+      <c r="I15" s="9" t="n"/>
+    </row>
+    <row r="16" ht="34" customHeight="1">
+      <c r="A16" s="8" t="n"/>
+      <c r="B16" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="n"/>
+      <c r="H16" s="9" t="n"/>
+      <c r="I16" s="9" t="n"/>
+    </row>
+    <row r="17" ht="34" customHeight="1">
+      <c r="A17" s="8" t="n"/>
+      <c r="B17" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>12:00 - 13:40</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>Метрология, стандартизация и сертификация в инфокоммуникациях: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>Метрология, стандартизация и сертификация в инфокоммуникациях: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="G15" s="7" t="n"/>
-      <c r="H15" s="3" t="n">
+      <c r="G17" s="7" t="n"/>
+      <c r="H17" s="3" t="n">
         <v>316</v>
       </c>
-      <c r="I15" s="3" t="inlineStr">
+      <c r="I17" s="3" t="inlineStr">
         <is>
           <t>Соловаров И.В.</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="34" customHeight="1">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="11" t="n">
+    <row r="18" ht="34" customHeight="1">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C16" s="11" t="inlineStr">
+      <c r="C18" s="11" t="inlineStr">
         <is>
           <t>13:50 - 15:25</t>
         </is>
       </c>
-      <c r="D16" s="23" t="n"/>
-      <c r="E16" s="15" t="n"/>
-      <c r="F16" s="23" t="n"/>
-      <c r="G16" s="15" t="n"/>
-      <c r="H16" s="10" t="n"/>
-      <c r="I16" s="10" t="n"/>
+      <c r="D18" s="23" t="n"/>
+      <c r="E18" s="15" t="n"/>
+      <c r="F18" s="23" t="n"/>
+      <c r="G18" s="15" t="n"/>
+      <c r="H18" s="10" t="n"/>
+      <c r="I18" s="10" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="24">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="D4:G4"/>
@@ -2390,11 +2538,14 @@
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A2:A4"/>
@@ -2409,7 +2560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -2423,7 +2574,7 @@
     <col width="9" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="20.5" customWidth="1" min="3" max="3"/>
-    <col width="23.5" customWidth="1" min="4" max="4"/>
+    <col width="45.95" customWidth="1" min="4" max="4"/>
     <col width="103.95" customWidth="1" min="5" max="5"/>
     <col width="23.5" customWidth="1" min="6" max="6"/>
     <col width="82.2" customWidth="1" min="7" max="7"/>
@@ -2791,7 +2942,7 @@
     <row r="13" ht="34" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>СБ</t>
+          <t>ПТ</t>
         </is>
       </c>
       <c r="B13" s="9" t="n">
@@ -2807,65 +2958,113 @@
       <c r="J13" s="9" t="n"/>
     </row>
     <row r="14" ht="34" customHeight="1">
-      <c r="A14" s="8" t="n"/>
-      <c r="B14" s="9" t="n">
+      <c r="A14" s="10" t="n"/>
+      <c r="B14" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="9" t="inlineStr">
+      <c r="C14" s="11" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D14" s="7" t="n"/>
-      <c r="I14" s="9" t="n"/>
-      <c r="J14" s="9" t="n"/>
+      <c r="D14" s="12" t="inlineStr">
+        <is>
+          <t>День самоподготовки: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E14" s="13" t="n"/>
+      <c r="F14" s="13" t="n"/>
+      <c r="G14" s="13" t="n"/>
+      <c r="H14" s="14" t="n"/>
+      <c r="I14" s="11" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="J14" s="11" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="34" customHeight="1">
-      <c r="A15" s="8" t="n"/>
-      <c r="B15" s="3" t="n">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="n"/>
+      <c r="I15" s="9" t="n"/>
+      <c r="J15" s="9" t="n"/>
+    </row>
+    <row r="16" ht="34" customHeight="1">
+      <c r="A16" s="8" t="n"/>
+      <c r="B16" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="n"/>
+      <c r="I16" s="9" t="n"/>
+      <c r="J16" s="9" t="n"/>
+    </row>
+    <row r="17" ht="34" customHeight="1">
+      <c r="A17" s="8" t="n"/>
+      <c r="B17" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>12:00 - 13:40</t>
         </is>
       </c>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>Метрология, стандартизация и сертификация в инфокоммуникациях: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="F15" s="7" t="n"/>
-      <c r="I15" s="3" t="n">
+      <c r="F17" s="7" t="n"/>
+      <c r="I17" s="3" t="n">
         <v>316</v>
       </c>
-      <c r="J15" s="3" t="inlineStr">
+      <c r="J17" s="3" t="inlineStr">
         <is>
           <t>Соловаров И.В.</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="34" customHeight="1">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="11" t="n">
+    <row r="18" ht="34" customHeight="1">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C16" s="11" t="inlineStr">
+      <c r="C18" s="11" t="inlineStr">
         <is>
           <t>13:50 - 15:25</t>
         </is>
       </c>
-      <c r="D16" s="15" t="n"/>
-      <c r="E16" s="23" t="n"/>
-      <c r="F16" s="15" t="n"/>
-      <c r="G16" s="16" t="n"/>
-      <c r="H16" s="16" t="n"/>
-      <c r="I16" s="10" t="n"/>
-      <c r="J16" s="10" t="n"/>
+      <c r="D18" s="15" t="n"/>
+      <c r="E18" s="23" t="n"/>
+      <c r="F18" s="15" t="n"/>
+      <c r="G18" s="16" t="n"/>
+      <c r="H18" s="16" t="n"/>
+      <c r="I18" s="10" t="n"/>
+      <c r="J18" s="10" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="25">
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="E4:G4"/>
@@ -2879,12 +3078,15 @@
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="D14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A2:A4"/>
